--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利印度机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -726,4 +727,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利印度机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,7 +882,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利印度机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -877,14 +972,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -893,14 +988,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -909,13 +1004,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>006105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利印度机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -972,7 +1067,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -988,14 +1083,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -1004,14 +1099,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -1020,13 +1115,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1072,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>006105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利印度机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1067,14 +1162,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -1083,7 +1178,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1099,14 +1194,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -1115,14 +1210,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -1131,13 +1226,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006105</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰达宏利印度机会股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -612,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -706,26 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.29</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -805,21 +859,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +908,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -899,21 +953,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>85.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.0540</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +1002,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -988,26 +1042,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>82.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0561</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1096,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1082,26 +1136,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1115,144 +1169,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>006105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利印度机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.03</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>86.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -765,21 +782,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0561</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -854,26 +871,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +925,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -953,21 +970,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1042,26 +1059,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.29</t>
+          <t>85.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0540</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1136,22 +1153,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>82.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1164,6 +1181,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利印度机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
+++ b/数据整理/stocks/其他/RIL-印度瑞来斯实业公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +602,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -611,8 +612,118 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利印度机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +794,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.08</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0542</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -777,26 +888,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>86.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -876,21 +987,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0561</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -965,26 +1076,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1130,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1064,21 +1175,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1153,26 +1264,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.29</t>
+          <t>85.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0540</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1247,22 +1358,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>82.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1282,51 +1393,51 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1341,22 +1452,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1364,6 +1475,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>